--- a/哨兵BOM.xlsx
+++ b/哨兵BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RM\哨兵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A8874-BF22-4916-A4A6-11FC098857DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D49A2-FB28-4280-BD36-FD6D4649BCBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{22EEF382-6403-47BD-B990-3C0092B8D460}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>哨兵电控硬件BOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,22 @@
   </si>
   <si>
     <t>摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,27 +531,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,6 +539,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C349D01-D09A-43D2-9493-E67322A3A5DF}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,16 +890,16 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -897,9 +913,15 @@
       <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -914,31 +936,43 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23" t="s">
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -948,55 +982,55 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1010,8 +1044,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1021,8 +1055,8 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1034,8 +1068,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -1061,10 +1095,10 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="9">
@@ -1074,8 +1108,8 @@
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="4">
@@ -1085,8 +1119,8 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="4">
@@ -1096,8 +1130,8 @@
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="4">
@@ -1107,7 +1141,7 @@
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1152,7 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1129,8 +1163,8 @@
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="4">
@@ -1140,8 +1174,8 @@
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="7">
@@ -1151,7 +1185,7 @@
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1164,7 +1198,7 @@
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
@@ -1175,7 +1209,7 @@
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
@@ -1186,7 +1220,7 @@
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1197,7 +1231,7 @@
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -1206,7 +1240,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1249,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1226,7 +1260,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
@@ -1235,7 +1269,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
@@ -1244,7 +1278,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
@@ -1253,7 +1287,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
@@ -1262,7 +1296,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1271,22 +1305,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1295,6 +1324,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
